--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H2">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I2">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J2">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N2">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O2">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P2">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q2">
-        <v>61.13320448853899</v>
+        <v>113.8694973236687</v>
       </c>
       <c r="R2">
-        <v>366.7992269312339</v>
+        <v>683.2169839420119</v>
       </c>
       <c r="S2">
-        <v>0.06919082333204486</v>
+        <v>0.009496341974784585</v>
       </c>
       <c r="T2">
-        <v>0.05068780873205971</v>
+        <v>0.007126289426898043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H3">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I3">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J3">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>255.851719</v>
       </c>
       <c r="O3">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P3">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q3">
-        <v>260.633843479829</v>
+        <v>608.4904091916045</v>
       </c>
       <c r="R3">
-        <v>2345.704591318461</v>
+        <v>5476.413682724441</v>
       </c>
       <c r="S3">
-        <v>0.2949865031522358</v>
+        <v>0.05074610101803786</v>
       </c>
       <c r="T3">
-        <v>0.3241517891447331</v>
+        <v>0.05712169024157534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H4">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I4">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J4">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N4">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O4">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P4">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q4">
-        <v>1.136832670034</v>
+        <v>3.514824852378111</v>
       </c>
       <c r="R4">
-        <v>10.231494030306</v>
+        <v>31.633423671403</v>
       </c>
       <c r="S4">
-        <v>0.001286672097242439</v>
+        <v>0.0002931248452320726</v>
       </c>
       <c r="T4">
-        <v>0.001413885238500212</v>
+        <v>0.0003299521790945975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H5">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I5">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J5">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N5">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O5">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P5">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q5">
-        <v>47.6060367509235</v>
+        <v>195.9363494674402</v>
       </c>
       <c r="R5">
-        <v>285.636220505541</v>
+        <v>1175.618096804641</v>
       </c>
       <c r="S5">
-        <v>0.0538807168040653</v>
+        <v>0.01634044782462526</v>
       </c>
       <c r="T5">
-        <v>0.03947193191507904</v>
+        <v>0.01226227539747457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H6">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I6">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J6">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N6">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O6">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P6">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q6">
-        <v>31.163359072252</v>
+        <v>2.591980489945666</v>
       </c>
       <c r="R6">
-        <v>280.470231650268</v>
+        <v>23.327824409511</v>
       </c>
       <c r="S6">
-        <v>0.03527082360626956</v>
+        <v>0.0002161626572788731</v>
       </c>
       <c r="T6">
-        <v>0.03875804640011006</v>
+        <v>0.0002433206907165264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H7">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I7">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J7">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N7">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O7">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P7">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q7">
-        <v>1.180303271077</v>
+        <v>0.8255983308689999</v>
       </c>
       <c r="R7">
-        <v>10.622729439693</v>
+        <v>7.430384977820999</v>
       </c>
       <c r="S7">
-        <v>0.001335872310155667</v>
+        <v>6.885218840878941E-05</v>
       </c>
       <c r="T7">
-        <v>0.001467949871531555</v>
+        <v>7.750257260835608E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H8">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I8">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J8">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N8">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O8">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P8">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q8">
-        <v>1.088542456583333</v>
+        <v>1293.811304811047</v>
       </c>
       <c r="R8">
-        <v>6.531254739499999</v>
+        <v>7762.86782886628</v>
       </c>
       <c r="S8">
-        <v>0.001232017026311907</v>
+        <v>0.107899612188541</v>
       </c>
       <c r="T8">
-        <v>0.0009025509507908512</v>
+        <v>0.08097053239524277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H9">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I9">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J9">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>255.851719</v>
       </c>
       <c r="O9">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P9">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q9">
-        <v>4.640865902972222</v>
+        <v>6913.807374097865</v>
       </c>
       <c r="R9">
-        <v>41.76779312675</v>
+        <v>62224.26636688079</v>
       </c>
       <c r="S9">
-        <v>0.005252551955794521</v>
+        <v>0.5765888206707106</v>
       </c>
       <c r="T9">
-        <v>0.005771871241064123</v>
+        <v>0.6490297254443342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H10">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I10">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J10">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N10">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O10">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P10">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q10">
-        <v>0.02024252838888889</v>
+        <v>39.93624487084111</v>
       </c>
       <c r="R10">
-        <v>0.1821827555</v>
+        <v>359.42620383757</v>
       </c>
       <c r="S10">
-        <v>2.291058054730457E-05</v>
+        <v>0.003330551617385723</v>
       </c>
       <c r="T10">
-        <v>2.517574734909361E-05</v>
+        <v>0.003748992218225027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H11">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I11">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J11">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N11">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O11">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P11">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q11">
-        <v>0.8476766861250001</v>
+        <v>2226.273672253131</v>
       </c>
       <c r="R11">
-        <v>5.086060116750001</v>
+        <v>13357.64203351879</v>
       </c>
       <c r="S11">
-        <v>0.0009594041130849579</v>
+        <v>0.1856639101609594</v>
       </c>
       <c r="T11">
-        <v>0.0007028402010397716</v>
+        <v>0.1393267811384401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H12">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I12">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J12">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N12">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O12">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P12">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q12">
-        <v>0.5548971254444445</v>
+        <v>29.45067589267666</v>
       </c>
       <c r="R12">
-        <v>4.994074129</v>
+        <v>265.05608303409</v>
       </c>
       <c r="S12">
-        <v>0.0006280349491786252</v>
+        <v>0.002456089613449707</v>
       </c>
       <c r="T12">
-        <v>0.0006901287016396496</v>
+        <v>0.002764665408582938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H13">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I13">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J13">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N13">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O13">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P13">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q13">
-        <v>0.02101656919444445</v>
+        <v>9.380637298109999</v>
       </c>
       <c r="R13">
-        <v>0.18914912275</v>
+        <v>84.42573568298999</v>
       </c>
       <c r="S13">
-        <v>2.37866432545855E-05</v>
+        <v>0.00078231433191508</v>
       </c>
       <c r="T13">
-        <v>2.613842628841287E-05</v>
+        <v>0.0008806019781364873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H14">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I14">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J14">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N14">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O14">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P14">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q14">
-        <v>71.85658459017698</v>
+        <v>68.05761884607399</v>
       </c>
       <c r="R14">
-        <v>431.139507541062</v>
+        <v>408.345713076444</v>
       </c>
       <c r="S14">
-        <v>0.08132759097480599</v>
+        <v>0.005675781818152672</v>
       </c>
       <c r="T14">
-        <v>0.05957896116060455</v>
+        <v>0.004259246778125747</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H15">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I15">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J15">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>255.851719</v>
       </c>
       <c r="O15">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P15">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q15">
-        <v>306.3516460123137</v>
+        <v>363.6830697736464</v>
       </c>
       <c r="R15">
-        <v>2757.164814110823</v>
+        <v>3273.147627962817</v>
       </c>
       <c r="S15">
-        <v>0.3467301083602286</v>
+        <v>0.03032997319021377</v>
       </c>
       <c r="T15">
-        <v>0.3810112794120337</v>
+        <v>0.03414054082678891</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H16">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I16">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J16">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N16">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O16">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P16">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q16">
-        <v>1.336244576128667</v>
+        <v>2.100743533045667</v>
       </c>
       <c r="R16">
-        <v>12.026201185158</v>
+        <v>18.906691797411</v>
       </c>
       <c r="S16">
-        <v>0.001512367348789233</v>
+        <v>0.0001751951089624438</v>
       </c>
       <c r="T16">
-        <v>0.001661894956940137</v>
+        <v>0.0001972061014586042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H17">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I17">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J17">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N17">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O17">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P17">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q17">
-        <v>55.95661531921051</v>
+        <v>117.1074054383695</v>
       </c>
       <c r="R17">
-        <v>335.7396919152631</v>
+        <v>702.644432630217</v>
       </c>
       <c r="S17">
-        <v>0.06333193748311584</v>
+        <v>0.00976637287386486</v>
       </c>
       <c r="T17">
-        <v>0.04639570652844356</v>
+        <v>0.007328927279047971</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H18">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I18">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J18">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N18">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O18">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P18">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q18">
-        <v>36.62972628416933</v>
+        <v>1.549177122823</v>
       </c>
       <c r="R18">
-        <v>329.667536557524</v>
+        <v>13.942594105407</v>
       </c>
       <c r="S18">
-        <v>0.04145768148804087</v>
+        <v>0.0001291962824427272</v>
       </c>
       <c r="T18">
-        <v>0.04555659830038253</v>
+        <v>0.0001454281191659105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H19">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I19">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J19">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N19">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O19">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P19">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q19">
-        <v>1.387340358644333</v>
+        <v>0.493444318653</v>
       </c>
       <c r="R19">
-        <v>12.486063227799</v>
+        <v>4.440998867877</v>
       </c>
       <c r="S19">
-        <v>0.001570197774834</v>
+        <v>4.115163503465699E-05</v>
       </c>
       <c r="T19">
-        <v>0.001725443071410103</v>
+        <v>4.632180408399238E-05</v>
       </c>
     </row>
   </sheetData>
